--- a/第一阶段课程/课件/项目规划表1.xlsx
+++ b/第一阶段课程/课件/项目规划表1.xlsx
@@ -179,8 +179,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
@@ -232,9 +232,92 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -248,7 +331,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -257,42 +340,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -307,40 +360,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -352,34 +375,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -428,6 +428,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -440,55 +464,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -506,7 +488,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -518,7 +518,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -530,19 +566,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -554,25 +590,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -584,31 +602,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -700,17 +700,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -732,11 +726,48 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -758,190 +789,159 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3468,7 +3468,7 @@
   <dimension ref="A1:AW33"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="25" customHeight="1"/>
@@ -3498,7 +3498,7 @@
       </c>
       <c r="H1" s="12">
         <f ca="1">TODAY()</f>
-        <v>44202</v>
+        <v>44220</v>
       </c>
       <c r="I1" s="17"/>
       <c r="J1" s="18">
@@ -3697,7 +3697,7 @@
     <row r="3" customHeight="1" spans="1:49">
       <c r="A3" s="7">
         <f ca="1">F3-TODAY()</f>
-        <v>-1436</v>
+        <v>-1454</v>
       </c>
       <c r="B3" s="13">
         <v>0</v>
@@ -3768,7 +3768,7 @@
     <row r="4" customHeight="1" spans="1:49">
       <c r="A4" s="7">
         <f ca="1" t="shared" ref="A4:A5" si="0">F4-TODAY()</f>
-        <v>-1469</v>
+        <v>-1487</v>
       </c>
       <c r="B4" s="13">
         <v>1</v>
@@ -3837,7 +3837,7 @@
     <row r="5" customHeight="1" spans="1:49">
       <c r="A5" s="7">
         <f ca="1" t="shared" si="0"/>
-        <v>-950</v>
+        <v>-968</v>
       </c>
       <c r="B5" s="13">
         <v>2</v>

--- a/第一阶段课程/课件/项目规划表1.xlsx
+++ b/第一阶段课程/课件/项目规划表1.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="500" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="项目进度管理表" sheetId="1" r:id="rId1"/>
+    <sheet name="项目进度管理表(即甘特图)" sheetId="1" r:id="rId1"/>
     <sheet name="施工进度墙" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">项目进度管理表!$A$2:$AW$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'项目进度管理表(即甘特图)'!$A$2:$AW$33</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
@@ -180,8 +180,8 @@
   <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="26">
@@ -233,7 +233,59 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,39 +299,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -293,23 +315,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -323,22 +338,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -360,26 +376,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -428,7 +428,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -440,43 +476,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -494,7 +500,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -506,13 +590,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -524,91 +602,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -703,23 +703,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -749,25 +734,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -787,6 +763,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -800,148 +800,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3467,7 +3467,7 @@
   </sheetPr>
   <dimension ref="A1:AW33"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -3498,7 +3498,7 @@
       </c>
       <c r="H1" s="12">
         <f ca="1">TODAY()</f>
-        <v>44220</v>
+        <v>44223</v>
       </c>
       <c r="I1" s="17"/>
       <c r="J1" s="18">
@@ -3697,7 +3697,7 @@
     <row r="3" customHeight="1" spans="1:49">
       <c r="A3" s="7">
         <f ca="1">F3-TODAY()</f>
-        <v>-1454</v>
+        <v>-1457</v>
       </c>
       <c r="B3" s="13">
         <v>0</v>
@@ -3768,7 +3768,7 @@
     <row r="4" customHeight="1" spans="1:49">
       <c r="A4" s="7">
         <f ca="1" t="shared" ref="A4:A5" si="0">F4-TODAY()</f>
-        <v>-1487</v>
+        <v>-1490</v>
       </c>
       <c r="B4" s="13">
         <v>1</v>
@@ -3837,7 +3837,7 @@
     <row r="5" customHeight="1" spans="1:49">
       <c r="A5" s="7">
         <f ca="1" t="shared" si="0"/>
-        <v>-968</v>
+        <v>-971</v>
       </c>
       <c r="B5" s="13">
         <v>2</v>
@@ -5756,7 +5756,7 @@
   </sheetPr>
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
